--- a/study01/report/motivation/effort-importance/MeasurementModel.xlsx
+++ b/study01/report/motivation/effort-importance/MeasurementModel.xlsx
@@ -3754,25 +3754,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="268">
-        <v>1.066201602643233</v>
+        <v>1.0760297443768778</v>
       </c>
       <c r="C27" t="n" s="269">
-        <v>0.30645661060752916</v>
+        <v>0.3415372668060937</v>
       </c>
       <c r="D27" t="n" s="270">
-        <v>0.7592570112506909</v>
+        <v>0.7326991547124486</v>
       </c>
       <c r="E27" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="272">
-        <v>1.1378213036649847</v>
+        <v>1.172091910380846</v>
       </c>
       <c r="G27" t="n" s="273">
-        <v>0.6688369006398589</v>
+        <v>0.8159618501333696</v>
       </c>
       <c r="H27" t="n" s="274">
-        <v>0.5035995249177555</v>
+        <v>0.4145219555272838</v>
       </c>
       <c r="I27" t="n" s="275">
         <v>1.0</v>
@@ -3783,25 +3783,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="268">
-        <v>0.8672990869833319</v>
+        <v>0.8973428045155285</v>
       </c>
       <c r="C28" t="n" s="269">
-        <v>-0.7462655894418265</v>
+        <v>-0.5608079965397524</v>
       </c>
       <c r="D28" t="n" s="270">
-        <v>0.4555069937767194</v>
+        <v>0.5749284347915591</v>
       </c>
       <c r="E28" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="272">
-        <v>0.8285442985317895</v>
+        <v>0.8613399069829596</v>
       </c>
       <c r="G28" t="n" s="273">
-        <v>-1.0112522213101083</v>
+        <v>-0.8070348037108324</v>
       </c>
       <c r="H28" t="n" s="274">
-        <v>0.311895727446756</v>
+        <v>0.41964643184873024</v>
       </c>
       <c r="I28" t="n" s="275">
         <v>1.0</v>
@@ -3812,25 +3812,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="268">
-        <v>1.085025925266091</v>
+        <v>1.0849122059040024</v>
       </c>
       <c r="C29" t="n" s="269">
-        <v>0.46044813466363954</v>
+        <v>0.4586165310213467</v>
       </c>
       <c r="D29" t="n" s="270">
-        <v>0.6451945913035227</v>
+        <v>0.6465095633987054</v>
       </c>
       <c r="E29" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="272">
-        <v>1.1658834988928273</v>
+        <v>1.1592927205502992</v>
       </c>
       <c r="G29" t="n" s="273">
-        <v>0.8994371276110626</v>
+        <v>0.8724238853418625</v>
       </c>
       <c r="H29" t="n" s="274">
-        <v>0.36841987064334375</v>
+        <v>0.38297717485263727</v>
       </c>
       <c r="I29" t="n" s="275">
         <v>1.0</v>
@@ -3841,28 +3841,28 @@
         <v>54</v>
       </c>
       <c r="B30" t="n" s="268">
-        <v>1.0723398182965362</v>
+        <v>1.081050590626666</v>
       </c>
       <c r="C30" t="n" s="269">
-        <v>0.41183984954959707</v>
+        <v>0.4121759988614868</v>
       </c>
       <c r="D30" t="n" s="270">
-        <v>0.6804568110697078</v>
+        <v>0.6802104276792522</v>
       </c>
       <c r="E30" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F30" t="n" s="272">
-        <v>1.1301572779742064</v>
+        <v>1.1290469499236315</v>
       </c>
       <c r="G30" t="n" s="273">
-        <v>1.353281395725836</v>
+        <v>1.3361917316523952</v>
       </c>
       <c r="H30" t="n" s="274">
-        <v>0.17596575035367035</v>
+        <v>0.18148661292651122</v>
       </c>
       <c r="I30" t="n" s="275">
-        <v>0.8798287517683517</v>
+        <v>0.9074330646325561</v>
       </c>
     </row>
     <row r="31">
@@ -3870,28 +3870,28 @@
         <v>55</v>
       </c>
       <c r="B31" t="n" s="268">
-        <v>1.1471474281885978</v>
+        <v>1.1474513938468085</v>
       </c>
       <c r="C31" t="n" s="269">
-        <v>0.49493588828335805</v>
+        <v>0.4915141304847978</v>
       </c>
       <c r="D31" t="n" s="270">
-        <v>0.620645376685043</v>
+        <v>0.6230628604156108</v>
       </c>
       <c r="E31" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="272">
-        <v>1.1474549126556581</v>
+        <v>1.14624996594123</v>
       </c>
       <c r="G31" t="n" s="273">
-        <v>1.6274861371992584</v>
+        <v>1.6016495410565887</v>
       </c>
       <c r="H31" t="n" s="274">
-        <v>0.10363389049444442</v>
+        <v>0.10923312910092137</v>
       </c>
       <c r="I31" t="n" s="275">
-        <v>0.6218033429666665</v>
+        <v>0.6553987746055282</v>
       </c>
     </row>
     <row r="32">
@@ -3899,28 +3899,28 @@
         <v>56</v>
       </c>
       <c r="B32" t="n" s="268">
-        <v>1.199742899682616</v>
+        <v>1.1887324338072702</v>
       </c>
       <c r="C32" t="n" s="269">
-        <v>0.8669279998346472</v>
+        <v>0.8338268350854514</v>
       </c>
       <c r="D32" t="n" s="270">
-        <v>0.3859814608678357</v>
+        <v>0.4043785711367686</v>
       </c>
       <c r="E32" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="272">
-        <v>1.1978816542171484</v>
+        <v>1.1915369973576795</v>
       </c>
       <c r="G32" t="n" s="273">
-        <v>2.8689746317506875</v>
+        <v>2.7727771859736707</v>
       </c>
       <c r="H32" t="n" s="274">
-        <v>0.004118048259104968</v>
+        <v>0.005558016215596452</v>
       </c>
       <c r="I32" t="n" s="275">
-        <v>0.028826337813734778</v>
+        <v>0.038906113509175166</v>
       </c>
     </row>
     <row r="33">
@@ -3928,28 +3928,28 @@
         <v>57</v>
       </c>
       <c r="B33" t="n" s="268">
-        <v>1.1370222342678789</v>
+        <v>1.1515948240013705</v>
       </c>
       <c r="C33" t="n" s="269">
-        <v>0.6153669543538867</v>
+        <v>0.7000238533319809</v>
       </c>
       <c r="D33" t="n" s="270">
-        <v>0.5383124097340481</v>
+        <v>0.4839124079770435</v>
       </c>
       <c r="E33" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="272">
-        <v>1.1465243179295475</v>
+        <v>1.1566492103118287</v>
       </c>
       <c r="G33" t="n" s="273">
-        <v>3.1414874002375632</v>
+        <v>3.4317131878372957</v>
       </c>
       <c r="H33" t="n" s="274">
-        <v>0.0016809204109346902</v>
+        <v>5.99781509280012E-4</v>
       </c>
       <c r="I33" t="n" s="275">
-        <v>0.013447363287477521</v>
+        <v>0.004798252074240096</v>
       </c>
     </row>
     <row r="34">
@@ -3957,25 +3957,25 @@
         <v>58</v>
       </c>
       <c r="B34" t="n" s="268">
-        <v>0.9316295536515539</v>
+        <v>0.942488211651839</v>
       </c>
       <c r="C34" t="n" s="269">
-        <v>0.12396622785057895</v>
+        <v>0.09919548754970099</v>
       </c>
       <c r="D34" t="n" s="270">
-        <v>0.9013420150273943</v>
+        <v>0.9209830576033418</v>
       </c>
       <c r="E34" t="n" s="271">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="272">
-        <v>0.9532508326910402</v>
+        <v>0.9571773050544149</v>
       </c>
       <c r="G34" t="n" s="273">
-        <v>-0.6373943546441274</v>
+        <v>-0.5821218103931516</v>
       </c>
       <c r="H34" t="n" s="274">
-        <v>0.5238680046726938</v>
+        <v>0.5604846351366884</v>
       </c>
       <c r="I34" t="n" s="275">
         <v>1.0</v>
